--- a/WPDigitalizer/MQ8/MQ8_Analisis.xlsx
+++ b/WPDigitalizer/MQ8/MQ8_Analisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onmotica Developer\Desktop\MQSensorsLib\WPDigitalizer\MQ8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E1E958-BE8F-4821-8649-8675F78D9342}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77AE281-F126-48B4-9B5B-C10BFF53D55B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{9C5EFFC2-5141-4097-B56E-3EAE3E1B3AE4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C5EFFC2-5141-4097-B56E-3EAE3E1B3AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Alcohol" sheetId="1" r:id="rId1"/>
@@ -10600,7 +10600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232858AB-EFC4-400C-8167-ED5D9C610C58}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -10973,7 +10973,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E28"/>
+      <selection activeCell="A20" sqref="A20:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11095,7 +11095,7 @@
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>53.973604887574098</v>
       </c>
       <c r="B20" s="2">
@@ -11115,7 +11115,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>45.126083824201103</v>
       </c>
       <c r="B21" s="2">
@@ -11135,7 +11135,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>44.237271963968503</v>
       </c>
       <c r="B22" s="2">
@@ -11155,7 +11155,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>43.365966309813203</v>
       </c>
       <c r="B23" s="2">
@@ -11175,7 +11175,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>40.853672351447102</v>
       </c>
       <c r="B24" s="2">
@@ -11195,7 +11195,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>40.049010713590697</v>
       </c>
       <c r="B25" s="2">
@@ -11215,7 +11215,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>37.728875911670599</v>
       </c>
       <c r="B26" s="2">
@@ -11235,7 +11235,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>34.156811406204099</v>
       </c>
       <c r="B27" s="2">
@@ -11255,7 +11255,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>29.1315002455997</v>
       </c>
       <c r="B28" s="2">
@@ -11977,7 +11977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526543DA-870C-4FD9-86D4-30D11917DC17}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19:E27"/>
     </sheetView>
   </sheetViews>
